--- a/Batch/Test/Update SFF Result-Unit Test Result.xlsx
+++ b/Batch/Test/Update SFF Result-Unit Test Result.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Suspend" sheetId="2" r:id="rId1"/>
     <sheet name="Terminate" sheetId="1" r:id="rId2"/>
     <sheet name="Reconnect" sheetId="4" r:id="rId3"/>
+    <sheet name="Blacklist" sheetId="5" r:id="rId4"/>
+    <sheet name="Deblacklist" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="54">
   <si>
     <t>แบบฟอร์มรายการการทดสอบ (Test Case Specification)</t>
   </si>
@@ -229,6 +231,98 @@
   <si>
     <t>Update Reconnect Result (Success และ Fail)</t>
   </si>
+  <si>
+    <t>โมดูล : Blacklist</t>
+  </si>
+  <si>
+    <t>Path File Data -&gt; D:\batch_receive_result\blacklist\inbound
+Path File Sync -&gt; D:\batch_receive_result\blacklist\inbound</t>
+  </si>
+  <si>
+    <t>ย้ายไฟล์ไปไว้ที Path Process
+D:\batch_receive_result\blacklist\process</t>
+  </si>
+  <si>
+    <t>Update ข้อมูลใน Table CL_TREATMENT ดังนี้
+- LAST_UPD=getdate()
+- LAST_UPD_BY='XXX'
+-  ACTION_STATUS = 6
+- ACTION_REMARK = 'Not Found Result in SFF_BLACKLIST'
+- ACTION_STATUS_DTM =getdate()</t>
+  </si>
+  <si>
+    <t>Update Blacklist Result (Failทั้งไฟล์)</t>
+  </si>
+  <si>
+    <t>Update Blacklist Result (Success &amp; Fail)</t>
+  </si>
+  <si>
+    <t>ทดสอบ Run Batch File เพื่อทดสอบการ Update ผลลัพธ์ไฟล์ Blacklist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update ข้อมูลใน Table CL_BLACKLISTดังนี้
+- LAST_UPD=getdate()
+- LAST_UPD_BY='XXX'
+-  ACTION_STATUS = 6
+- ACTION_REMARK = ''Not Found Result in SFF_BLACKLIST'
+- ACTION_STATUS_DTM =getdate()
+</t>
+  </si>
+  <si>
+    <t>Update ข้อมูลใน Table CL_TREATMENT ดังนี้
+Fail
+- LAST_UPD=getdate()
+- LAST_UPD_BY='XXX'
+-  ACTION_STATUS = 6
+- ACTION_REMARK = 'Not Found Result in SFF_BLACKLIST'
+- ACTION_STATUS_DTM =getdate()
+Success
+- LAST_UPD=getdate()
+- LAST_UPD_BY='XXX'
+-  ACTION_STATUS = 4
+- ACTION_REMARK = ''
+- ACTION_STATUS_DTM =getdate()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update ข้อมูลใน Table CL_BLACKLISTดังนี้
+Fail
+- LAST_UPD=getdate()
+- LAST_UPD_BY='XXX'
+-  ACTION_STATUS = 6
+- ACTION_REMARK = ''Not Found Result in SFF_BLACKLIST'
+- ACTION_STATUS_DTM =getdate()
+Success
+- LAST_UPD=getdate()
+- LAST_UPD_BY='XXX'
+-  ACTION_STATUS = 4
+- ACTION_REMARK = ''
+- ACTION_STATUS_DTM =getdate()
+- SFF_BLACKLIST_ID = จาก Table SFF_BLACKLIST
+</t>
+  </si>
+  <si>
+    <t>Update Blacklist Result (Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update ข้อมูลใน Table CL_BLACKLISTดังนี้
+Success
+- LAST_UPD=getdate()
+- LAST_UPD_BY='XXX'
+-  ACTION_STATUS = 4
+- ACTION_REMARK = ''
+- ACTION_STATUS_DTM =getdate()
+- SFF_BLACKLIST_ID = จาก Table SFF_BLACKLIST
+</t>
+  </si>
+  <si>
+    <t>Update ข้อมูลใน Table CL_TREATMENT ดังนี้
+Success
+- LAST_UPD=getdate()
+- LAST_UPD_BY='XXX'
+-  ACTION_STATUS = 4
+- ACTION_REMARK = ''
+- ACTION_STATUS_DTM =getdate()</t>
+  </si>
 </sst>
 </file>
 
@@ -377,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -406,6 +500,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -417,24 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3665,6 +3762,1840 @@
         <a:xfrm>
           <a:off x="22669501" y="30118051"/>
           <a:ext cx="7422264" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6444904</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1019095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14614071" y="2326821"/>
+          <a:ext cx="6390476" cy="638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6463393</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>742925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14709321" y="4762500"/>
+          <a:ext cx="6313715" cy="266675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4667250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2451019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14859000" y="5810250"/>
+          <a:ext cx="4367893" cy="2369376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>299357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5004107</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2327928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14763750" y="8586107"/>
+          <a:ext cx="4800000" cy="2028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>244928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5847655</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1235404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21608143" y="2190749"/>
+          <a:ext cx="5561905" cy="990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6517821</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>530679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8776607</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>817693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21077464" y="4816929"/>
+          <a:ext cx="9021536" cy="287014"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7555119</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2227238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21458464" y="5946321"/>
+          <a:ext cx="7419048" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5975547</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2600024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21621750" y="8477250"/>
+          <a:ext cx="5676190" cy="2409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>299357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6704786</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1366024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14750143" y="11430000"/>
+          <a:ext cx="6514286" cy="1066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6164036</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>531854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14573250" y="13702393"/>
+          <a:ext cx="6150429" cy="300532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>312965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6318393</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1217727</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14763750" y="15226394"/>
+          <a:ext cx="6114286" cy="904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5081667</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1043560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14831786" y="18138322"/>
+          <a:ext cx="4809524" cy="866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>299357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6281655</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1251738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21499286" y="11430000"/>
+          <a:ext cx="6104762" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9225643</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>676226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21485679" y="13756821"/>
+          <a:ext cx="9062357" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>312965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7212262</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1198679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21458465" y="15226394"/>
+          <a:ext cx="7076190" cy="885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5971464</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1029953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21608143" y="18124715"/>
+          <a:ext cx="5685714" cy="866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6639476</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1262619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14722929" y="21077464"/>
+          <a:ext cx="6476190" cy="990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>367393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6164036</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>607947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14627679" y="23513143"/>
+          <a:ext cx="6096000" cy="240554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>258536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6210892</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>953774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14627678" y="24846643"/>
+          <a:ext cx="6142857" cy="695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>312964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4926548</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1055821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14695715" y="26615571"/>
+          <a:ext cx="4790476" cy="742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4322464</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1242202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21444857" y="21009428"/>
+          <a:ext cx="4200000" cy="1038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>340179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8790214</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>660156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21404035" y="23485929"/>
+          <a:ext cx="8708572" cy="319977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6296619</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>979619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21485679" y="24805821"/>
+          <a:ext cx="6133333" cy="761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5144262</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>995953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21676179" y="26574750"/>
+          <a:ext cx="4790476" cy="723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6444904</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1019095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14608628" y="2324100"/>
+          <a:ext cx="6390476" cy="638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6463393</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>742925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14703878" y="4752975"/>
+          <a:ext cx="6313715" cy="266675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4667250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2451019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14853557" y="5806168"/>
+          <a:ext cx="4367893" cy="2369376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>299357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5004107</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2327928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14758307" y="8586107"/>
+          <a:ext cx="4800000" cy="2028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>244928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5847655</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1235404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21602700" y="2188028"/>
+          <a:ext cx="5561905" cy="990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>299357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6704786</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1366024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14744700" y="11434082"/>
+          <a:ext cx="6514286" cy="1066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>299357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6281655</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1251738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21493843" y="11434082"/>
+          <a:ext cx="6104762" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6639476</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1262619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14717486" y="21084268"/>
+          <a:ext cx="6476190" cy="990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>367393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6164036</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>607947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14622236" y="23513143"/>
+          <a:ext cx="6096000" cy="240554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>258536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6210892</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>953774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14622235" y="24852086"/>
+          <a:ext cx="6142857" cy="695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>312964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4926548</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1055821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14690272" y="26621014"/>
+          <a:ext cx="4790476" cy="742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4322464</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1242202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21439414" y="21016232"/>
+          <a:ext cx="4200000" cy="1038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>367393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6354537</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>653859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14654894" y="13838464"/>
+          <a:ext cx="6259286" cy="286466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>421822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6250358</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1317060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14695715" y="15335251"/>
+          <a:ext cx="6114286" cy="895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5085750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1161940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14845393" y="18247179"/>
+          <a:ext cx="4800000" cy="876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>408214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7258523</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1351071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21485678" y="15321643"/>
+          <a:ext cx="7095238" cy="942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5917036</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1247667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21553715" y="18342429"/>
+          <a:ext cx="5685714" cy="866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8790214</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>621797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21390429" y="13702392"/>
+          <a:ext cx="8722178" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>326571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5125203</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1040857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21580929" y="26629178"/>
+          <a:ext cx="4866667" cy="714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>367393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6314309</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1043583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21512893" y="24955500"/>
+          <a:ext cx="6123809" cy="676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8640536</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>534714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21472072" y="23309035"/>
+          <a:ext cx="8490857" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7163286</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2312953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21485679" y="5946322"/>
+          <a:ext cx="7000000" cy="2095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5866690</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2357857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21512893" y="8558893"/>
+          <a:ext cx="5676190" cy="2085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9320893</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>544237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21458465" y="4449535"/>
+          <a:ext cx="9184821" cy="380952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4039,58 +5970,58 @@
       <c r="F6" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="17">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -4101,10 +6032,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="9" t="s">
         <v>15</v>
       </c>
@@ -4113,10 +6044,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="9" t="s">
         <v>16</v>
       </c>
@@ -4125,10 +6056,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="9" t="s">
         <v>17</v>
       </c>
@@ -4137,16 +6068,16 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="17">
         <v>2</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -4157,10 +6088,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="9" t="s">
         <v>15</v>
       </c>
@@ -4169,10 +6100,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="9" t="s">
         <v>21</v>
       </c>
@@ -4181,10 +6112,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="9" t="s">
         <v>22</v>
       </c>
@@ -4193,16 +6124,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="17">
         <v>3</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -4213,10 +6144,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="9" t="s">
         <v>15</v>
       </c>
@@ -4225,10 +6156,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="9" t="s">
         <v>24</v>
       </c>
@@ -4237,10 +6168,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="348.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="9" t="s">
         <v>25</v>
       </c>
@@ -4250,13 +6181,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
@@ -4269,6 +6193,13 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="D15:D18"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4353,58 +6284,58 @@
       <c r="F6" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="17">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -4415,10 +6346,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="9" t="s">
         <v>15</v>
       </c>
@@ -4427,10 +6358,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="9" t="s">
         <v>16</v>
       </c>
@@ -4439,10 +6370,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="9" t="s">
         <v>17</v>
       </c>
@@ -4451,16 +6382,16 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="17">
         <v>2</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -4471,10 +6402,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="9" t="s">
         <v>15</v>
       </c>
@@ -4483,10 +6414,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="9" t="s">
         <v>21</v>
       </c>
@@ -4495,10 +6426,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="9" t="s">
         <v>22</v>
       </c>
@@ -4507,16 +6438,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="17">
         <v>3</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -4527,10 +6458,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="9" t="s">
         <v>15</v>
       </c>
@@ -4539,10 +6470,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="9" t="s">
         <v>24</v>
       </c>
@@ -4551,10 +6482,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="348.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="9" t="s">
         <v>25</v>
       </c>
@@ -4564,17 +6495,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C18"/>
@@ -4583,6 +6503,17 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4594,8 +6525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="E12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4668,58 +6599,58 @@
       <c r="F6" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="17">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -4730,10 +6661,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="9" t="s">
         <v>15</v>
       </c>
@@ -4742,10 +6673,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="9" t="s">
         <v>16</v>
       </c>
@@ -4754,10 +6685,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="9" t="s">
         <v>17</v>
       </c>
@@ -4766,16 +6697,16 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="17">
         <v>2</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -4786,10 +6717,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="9" t="s">
         <v>15</v>
       </c>
@@ -4798,10 +6729,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="9" t="s">
         <v>21</v>
       </c>
@@ -4810,10 +6741,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="9" t="s">
         <v>22</v>
       </c>
@@ -4822,16 +6753,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="17">
         <v>3</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -4842,10 +6773,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="9" t="s">
         <v>15</v>
       </c>
@@ -4854,10 +6785,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="302.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="9" t="s">
         <v>24</v>
       </c>
@@ -4866,10 +6797,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="9" t="s">
         <v>25</v>
       </c>
@@ -4879,13 +6810,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
@@ -4898,6 +6822,641 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="D15:D18"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView topLeftCell="F21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="101.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="141.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>1</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>3</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="101.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="141.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>1</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>3</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
